--- a/Files_AppelCitoyen/Candidats-primaire-AC-final-pour-EPFL+Votebox.xlsx
+++ b/Files_AppelCitoyen/Candidats-primaire-AC-final-pour-EPFL+Votebox.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhuang\Dropbox\Voting\Final-SwissVoting\Files_AppelCitoyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evequozf/Documents/perso/appel citoyen/Vote-phase2/code-epfl/Swiss-Voting/Files_AppelCitoyen/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA559CA-BF83-1D42-98F5-4C1C901998F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17860" windowHeight="6290"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25380" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Chart1" sheetId="3" r:id="rId3"/>
-    <sheet name="Chart2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$C$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="600">
   <si>
     <t>District</t>
   </si>
@@ -37,12 +34,6 @@
     <t>Confirmed?</t>
   </si>
   <si>
-    <t>♀ F</t>
-  </si>
-  <si>
-    <t>♂H</t>
-  </si>
-  <si>
     <t>18-30</t>
   </si>
   <si>
@@ -769,18 +760,6 @@
     <t>079 225 81 28</t>
   </si>
   <si>
-    <t>(unique commune)</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>SUMS</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
@@ -796,15 +775,9 @@
     <t>079 3900200</t>
   </si>
   <si>
-    <t>communes francophones total</t>
-  </si>
-  <si>
     <t>Troistorrents</t>
   </si>
   <si>
-    <t>Total candidats</t>
-  </si>
-  <si>
     <t>Ducrey</t>
   </si>
   <si>
@@ -820,9 +793,6 @@
     <t>Vouvry</t>
   </si>
   <si>
-    <t>31-65</t>
-  </si>
-  <si>
     <t>Gay-Truffer</t>
   </si>
   <si>
@@ -845,9 +815,6 @@
   </si>
   <si>
     <t>079 265 13 27</t>
-  </si>
-  <si>
-    <t>ici</t>
   </si>
   <si>
     <t>Gonet</t>
@@ -1861,8 +1828,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1871,19 +1838,16 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1892,14 +1856,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1933,7 +1903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1943,11 +1913,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1979,7 +1950,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Sheet1-style" pivot="0" count="3">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1994,869 +1965,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:t>Candidats à la candidature par commune (2 candidats et plus)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nombre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$2:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Sion</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Monthey</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fully</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Martigny</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sierre</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Conthey</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Crans-Montana</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>St-Maurice</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Troistorrents</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Grimisuat</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Vétroz</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Saxon</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Veyras</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>St-Léonard</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Ayent</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Salvan</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Riddes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Orsières</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Vouvry</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collombey-Muraz</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Savièse</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Chamoson</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Evolène</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Vollèges</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-938512672"/>
-        <c:axId val="-938511040"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-938512672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Commune</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-938511040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-938511040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Nombre</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-938512672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.7819148936170192E-2"/>
-          <c:y val="4.9999999999999982E-2"/>
-          <c:w val="0.23867021276595751"/>
-          <c:h val="0.22745860087867528"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F4B1E4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>H</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$L$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.7819148936170192E-2"/>
-          <c:y val="0.23463239156942206"/>
-          <c:w val="0.74292553191489363"/>
-          <c:h val="0.17550145164281511"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$N$1:$N$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$O$1:$O$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="109618"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="990099"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$P$1:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0099C6"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-938510496"/>
-        <c:axId val="-938506144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-938510496"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-938506144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-938506144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-938510496"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3121,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3129,21 +2237,21 @@
   <dimension ref="A1:Z164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="14.453125" hidden="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="4" max="5" width="14.5" hidden="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="12" width="8.08984375" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" customWidth="1"/>
-    <col min="14" max="17" width="14.453125" hidden="1"/>
+    <col min="8" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="17" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.5">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="2"/>
@@ -3160,34 +2268,34 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -3199,21 +2307,21 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="12.5">
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -3229,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" s="5" t="b">
         <f t="shared" ref="N2:N101" si="0">SUM(H2:I2)=1</f>
@@ -3257,21 +2365,21 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="12.5">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
@@ -3287,7 +2395,7 @@
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3315,21 +2423,21 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="12.5">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -3345,7 +2453,7 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3373,21 +2481,21 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="12.5">
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -3403,7 +2511,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3431,21 +2539,21 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="12.5">
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -3461,7 +2569,7 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3489,21 +2597,21 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="12.5">
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -3519,7 +2627,7 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3547,21 +2655,21 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="12.5">
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -3577,7 +2685,7 @@
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3605,21 +2713,21 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="12.5">
+    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -3635,7 +2743,7 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N9" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3663,21 +2771,21 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="12.5">
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -3693,7 +2801,7 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3721,21 +2829,21 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="12.5">
+    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -3750,8 +2858,8 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="8" t="s">
-        <v>23</v>
+      <c r="M11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="N11" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3779,21 +2887,21 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="12.5">
+    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -3809,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3837,21 +2945,21 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="12.5">
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -3867,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3895,21 +3003,21 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="12.5">
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -3924,8 +3032,8 @@
         <v>1</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="8" t="s">
-        <v>13</v>
+      <c r="M14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="N14" s="5" t="b">
         <f t="shared" si="0"/>
@@ -3953,21 +3061,21 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="12.5">
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -3983,7 +3091,7 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4011,21 +3119,21 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="12.5">
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -4041,7 +3149,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4069,18 +3177,18 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="12.5">
+    <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
@@ -4097,7 +3205,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N17" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4125,21 +3233,21 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="12.5">
+    <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -4155,7 +3263,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N18" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4183,21 +3291,21 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="12.5">
+    <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -4213,7 +3321,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="6"/>
       <c r="M19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N19" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4241,21 +3349,21 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="12.5">
+    <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
@@ -4271,7 +3379,7 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N20" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4299,21 +3407,21 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="12.5">
+    <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F21" s="8">
         <v>1</v>
@@ -4329,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N21" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4357,21 +3465,21 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="12.5">
+    <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -4387,7 +3495,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
       <c r="M22" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N22" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4415,21 +3523,21 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="12.5">
+    <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="8">
         <v>1</v>
@@ -4445,7 +3553,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N23" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4473,21 +3581,21 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="12.5">
+    <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="E24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F24" s="8">
         <v>1</v>
@@ -4503,7 +3611,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="6"/>
       <c r="M24" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N24" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4531,21 +3639,21 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="12.5">
+    <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="E25" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
@@ -4561,7 +3669,7 @@
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N25" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4589,21 +3697,21 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="12.5">
+    <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="E26" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -4619,7 +3727,7 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N26" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4647,21 +3755,21 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="12.5">
+    <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="E27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
@@ -4677,7 +3785,7 @@
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N27" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4705,21 +3813,21 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="12.5">
+    <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="E28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -4735,7 +3843,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="6"/>
       <c r="M28" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N28" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4763,21 +3871,21 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="12.5">
+    <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="E29" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
@@ -4793,7 +3901,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N29" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4821,18 +3929,18 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="12.5">
+    <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="8">
@@ -4849,7 +3957,7 @@
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N30" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4877,21 +3985,21 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="12.5">
+    <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="E31" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
@@ -4907,7 +4015,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="6"/>
       <c r="M31" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N31" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4935,21 +4043,21 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="12.5">
+    <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -4965,7 +4073,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="6"/>
       <c r="M32" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N32" s="5" t="b">
         <f t="shared" si="0"/>
@@ -4993,18 +4101,18 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="12.5">
+    <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="8">
@@ -5021,7 +4129,7 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N33" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5049,21 +4157,21 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="12.5">
+    <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="E34" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F34" s="8">
         <v>1</v>
@@ -5079,7 +4187,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="6"/>
       <c r="M34" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N34" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5107,21 +4215,21 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="12.5">
+    <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="E35" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -5137,7 +4245,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N35" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5165,21 +4273,21 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="12.5">
+    <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="E36" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
@@ -5195,7 +4303,7 @@
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N36" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5223,21 +4331,21 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="12.5">
+    <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="E37" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F37" s="8">
         <v>1</v>
@@ -5253,7 +4361,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="6"/>
       <c r="M37" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N37" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5281,21 +4389,21 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="12.5">
+    <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="E38" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
@@ -5310,8 +4418,8 @@
         <v>1</v>
       </c>
       <c r="L38" s="6"/>
-      <c r="M38" s="8" t="s">
-        <v>163</v>
+      <c r="M38" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="N38" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5339,18 +4447,18 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="12.5">
+    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="8">
@@ -5367,7 +4475,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N39" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5395,18 +4503,18 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="12.5">
+    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="8">
@@ -5423,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N40" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5451,21 +4559,21 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="12.5">
+    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F41" s="8">
         <v>1</v>
@@ -5481,7 +4589,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="6"/>
       <c r="M41" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N41" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5509,21 +4617,21 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="12.5">
+    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="E42" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F42" s="8">
         <v>1</v>
@@ -5539,7 +4647,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="6"/>
       <c r="M42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N42" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5567,21 +4675,21 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="12.5">
+    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="E43" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -5597,7 +4705,7 @@
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N43" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5625,21 +4733,21 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="12.5">
+    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F44" s="8">
         <v>1</v>
@@ -5655,7 +4763,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N44" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5683,21 +4791,21 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="12.5">
+    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="E45" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F45" s="8">
         <v>1</v>
@@ -5713,7 +4821,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N45" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5741,21 +4849,21 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="12.5">
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F46" s="8">
         <v>1</v>
@@ -5771,7 +4879,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N46" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5799,18 +4907,18 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="12.5">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="8">
@@ -5827,7 +4935,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N47" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5855,21 +4963,21 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="12.5">
+    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F48" s="8">
         <v>1</v>
@@ -5885,7 +4993,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="6"/>
       <c r="M48" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N48" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5913,21 +5021,21 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="12.5">
+    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="E49" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
@@ -5943,7 +5051,7 @@
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N49" s="5" t="b">
         <f t="shared" si="0"/>
@@ -5971,21 +5079,21 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="12.5">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="E50" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F50" s="8">
         <v>1</v>
@@ -6001,7 +5109,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="6"/>
       <c r="M50" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N50" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6029,21 +5137,21 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="12.5">
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="E51" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F51" s="8">
         <v>1</v>
@@ -6059,7 +5167,7 @@
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N51" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6087,21 +5195,21 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="12.5">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F52" s="8">
         <v>1</v>
@@ -6117,7 +5225,7 @@
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N52" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6145,18 +5253,18 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="12.5">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="8">
@@ -6173,7 +5281,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="6"/>
       <c r="M53" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N53" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6201,21 +5309,21 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="12.5">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -6231,7 +5339,7 @@
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N54" s="5" t="b">
         <v>1</v>
@@ -6255,21 +5363,21 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="12.5">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -6285,7 +5393,7 @@
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N55" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6313,18 +5421,18 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="12.5">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1">
@@ -6341,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N56" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6369,18 +5477,18 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="12.5">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1">
@@ -6397,7 +5505,7 @@
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N57" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6425,18 +5533,18 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="12.5">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1">
@@ -6453,7 +5561,7 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N58" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6481,21 +5589,21 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="12.5">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -6511,7 +5619,7 @@
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N59" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6539,21 +5647,21 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="12.5">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -6569,7 +5677,7 @@
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N60" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6597,21 +5705,21 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="12.5">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -6627,7 +5735,7 @@
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N61" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6655,21 +5763,21 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="12.5">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -6685,7 +5793,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="6"/>
       <c r="M62" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N62" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6713,21 +5821,21 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="12.5">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -6743,7 +5851,7 @@
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N63" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6771,21 +5879,21 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="12.5">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -6801,7 +5909,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="6"/>
       <c r="M64" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N64" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6829,18 +5937,18 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="12.5">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1">
@@ -6857,7 +5965,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="6"/>
       <c r="M65" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N65" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6885,18 +5993,18 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="12.5">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1">
@@ -6913,7 +6021,7 @@
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N66" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6941,18 +6049,18 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="12.5">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1">
@@ -6969,7 +6077,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="6"/>
       <c r="M67" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N67" s="5" t="b">
         <f t="shared" si="0"/>
@@ -6997,18 +6105,18 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="12.5">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="1">
@@ -7025,7 +6133,7 @@
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N68" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7053,21 +6161,21 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="12.5">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -7083,7 +6191,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="6"/>
       <c r="M69" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="N69" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7111,18 +6219,18 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="12.5">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1">
@@ -7139,7 +6247,7 @@
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N70" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7167,21 +6275,21 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="12.5">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -7197,7 +6305,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="6"/>
       <c r="M71" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N71" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7225,21 +6333,21 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="12.5">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -7255,7 +6363,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="6"/>
       <c r="M72" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N72" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7283,18 +6391,18 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="12.5">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1">
@@ -7311,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N73" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7339,18 +6447,18 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="12.5">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1">
@@ -7367,7 +6475,7 @@
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N74" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7395,18 +6503,18 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="12.5">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1">
@@ -7423,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N75" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7451,21 +6559,21 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="12.5">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -7481,7 +6589,7 @@
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N76" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7509,18 +6617,18 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="12.5">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1">
@@ -7537,7 +6645,7 @@
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N77" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7565,21 +6673,21 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="12.5">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
@@ -7595,7 +6703,7 @@
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N78" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7623,21 +6731,21 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="12.5">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>
@@ -7653,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N79" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7681,18 +6789,18 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="12.5">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1">
@@ -7709,7 +6817,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="6"/>
       <c r="M80" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N80" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7737,21 +6845,21 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="12.5">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F81" s="1">
         <v>1</v>
@@ -7767,7 +6875,7 @@
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N81" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7795,21 +6903,21 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="12.5">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -7825,7 +6933,7 @@
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N82" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7853,18 +6961,18 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="12.5">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1">
@@ -7881,7 +6989,7 @@
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N83" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7909,21 +7017,21 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="12.5">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -7939,7 +7047,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="6"/>
       <c r="M84" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="N84" s="5" t="b">
         <f t="shared" si="0"/>
@@ -7967,21 +7075,21 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="12.5">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="13">
+      <c r="F85" s="9">
         <v>1</v>
       </c>
       <c r="G85" s="2"/>
@@ -7995,7 +7103,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="6"/>
       <c r="M85" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N85" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8023,21 +7131,21 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="12.5">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -8053,7 +7161,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="6"/>
       <c r="M86" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N86" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8081,21 +7189,21 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="12.5">
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -8111,7 +7219,7 @@
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N87" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8139,23 +7247,23 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="12.5">
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" s="13">
+        <v>360</v>
+      </c>
+      <c r="F88" s="9">
         <v>1</v>
       </c>
       <c r="G88" s="2"/>
@@ -8169,7 +7277,7 @@
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N88" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8197,21 +7305,21 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="12.5">
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -8227,7 +7335,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="6"/>
       <c r="M89" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N89" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8255,21 +7363,21 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="12.5">
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -8285,7 +7393,7 @@
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N90" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8313,18 +7421,18 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="12.5">
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1">
@@ -8341,7 +7449,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="6"/>
       <c r="M91" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N91" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8369,21 +7477,21 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="12.5">
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
@@ -8399,7 +7507,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="6"/>
       <c r="M92" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N92" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8427,21 +7535,21 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="12.5">
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -8457,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N93" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8485,18 +7593,18 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="12.5">
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1">
@@ -8513,7 +7621,7 @@
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N94" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8541,21 +7649,21 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="12.5">
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F95" s="1">
         <v>1</v>
@@ -8571,7 +7679,7 @@
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N95" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8599,21 +7707,21 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="12.5">
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F96" s="1">
         <v>1</v>
@@ -8629,7 +7737,7 @@
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N96" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8657,21 +7765,21 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="12.5">
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
@@ -8687,7 +7795,7 @@
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N97" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8715,21 +7823,21 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="12.5">
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -8745,7 +7853,7 @@
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N98" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8773,18 +7881,18 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="12.5">
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="1">
@@ -8801,7 +7909,7 @@
       </c>
       <c r="L99" s="6"/>
       <c r="M99" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N99" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8829,21 +7937,21 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="12.5">
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -8858,8 +7966,8 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="1" t="s">
-        <v>281</v>
+      <c r="M100" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="N100" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8887,21 +7995,21 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="12.5">
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
@@ -8917,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N101" s="5" t="b">
         <f t="shared" si="0"/>
@@ -8945,21 +8053,21 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="12.5">
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -8975,7 +8083,7 @@
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -8991,21 +8099,21 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="12.5">
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -9021,7 +8129,7 @@
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N103" s="5" t="b">
         <f t="shared" ref="N103:N152" si="4">SUM(H103:I103)=1</f>
@@ -9049,21 +8157,21 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="12.5">
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
@@ -9079,7 +8187,7 @@
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N104" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9107,21 +8215,21 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="12.5">
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
@@ -9137,7 +8245,7 @@
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="N105" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9165,21 +8273,21 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="12.5">
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -9195,7 +8303,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="6"/>
       <c r="M106" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N106" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9223,21 +8331,21 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="12.5">
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
@@ -9253,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N107" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9281,21 +8389,21 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="12.5">
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
@@ -9311,7 +8419,7 @@
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N108" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9339,21 +8447,21 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="12.5">
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
@@ -9369,7 +8477,7 @@
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N109" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9397,21 +8505,21 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="12.5">
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -9427,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N110" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9455,21 +8563,21 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="12.5">
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -9485,7 +8593,7 @@
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N111" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9513,21 +8621,21 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="12.5">
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -9543,7 +8651,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="6"/>
       <c r="M112" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N112" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9571,21 +8679,21 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="12.5">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -9601,7 +8709,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="6"/>
       <c r="M113" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N113" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9629,21 +8737,21 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="12.5">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -9659,7 +8767,7 @@
       </c>
       <c r="L114" s="6"/>
       <c r="M114" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="N114" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9687,21 +8795,21 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="12.5">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -9717,7 +8825,7 @@
       </c>
       <c r="L115" s="6"/>
       <c r="M115" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N115" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9745,21 +8853,21 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="12.5">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -9775,7 +8883,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="6"/>
       <c r="M116" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N116" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9803,21 +8911,21 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="12.5">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -9828,12 +8936,12 @@
         <v>1</v>
       </c>
       <c r="J117" s="3"/>
-      <c r="K117" s="1">
-        <v>1</v>
-      </c>
-      <c r="L117" s="6"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="12">
+        <v>1</v>
+      </c>
       <c r="M117" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N117" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9861,21 +8969,21 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="12.5">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -9891,7 +8999,7 @@
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N118" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9919,21 +9027,21 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="12.5">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
@@ -9949,7 +9057,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="6"/>
       <c r="M119" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N119" s="5" t="b">
         <f t="shared" si="4"/>
@@ -9977,21 +9085,21 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="12.5">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -10007,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N120" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10035,21 +9143,21 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="12.5">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
@@ -10065,7 +9173,7 @@
       </c>
       <c r="L121" s="6"/>
       <c r="M121" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N121" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10093,21 +9201,21 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="12.5">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F122" s="1">
         <v>1</v>
@@ -10123,7 +9231,7 @@
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N122" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10151,21 +9259,21 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="12.5">
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -10181,7 +9289,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="6"/>
       <c r="M123" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N123" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10209,21 +9317,21 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="12.5">
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -10239,7 +9347,7 @@
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N124" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10267,21 +9375,21 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="12.5">
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F125" s="1">
         <v>1</v>
@@ -10297,7 +9405,7 @@
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N125" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10325,21 +9433,21 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="12.5">
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -10355,7 +9463,7 @@
       </c>
       <c r="L126" s="6"/>
       <c r="M126" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N126" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10383,21 +9491,21 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="12.5">
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -10413,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N127" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10441,21 +9549,21 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="12.5">
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F128" s="1">
         <v>1</v>
@@ -10466,12 +9574,12 @@
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="4">
-        <v>1</v>
-      </c>
+      <c r="K128" s="10">
+        <v>1</v>
+      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N128" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10499,21 +9607,21 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="12.5">
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F129" s="1">
         <v>1</v>
@@ -10529,7 +9637,7 @@
       </c>
       <c r="L129" s="6"/>
       <c r="M129" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N129" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10557,21 +9665,21 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="12.5">
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F130" s="1">
         <v>1</v>
@@ -10587,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N130" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10615,21 +9723,21 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="12.5">
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F131" s="1">
         <v>1</v>
@@ -10645,7 +9753,7 @@
       </c>
       <c r="L131" s="6"/>
       <c r="M131" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N131" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10673,21 +9781,21 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="12.5">
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
@@ -10703,7 +9811,7 @@
       </c>
       <c r="L132" s="6"/>
       <c r="M132" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N132" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10731,21 +9839,21 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="12.5">
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F133" s="1">
         <v>1</v>
@@ -10761,7 +9869,7 @@
       </c>
       <c r="L133" s="6"/>
       <c r="M133" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N133" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10789,21 +9897,21 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="12.5">
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F134" s="1">
         <v>1</v>
@@ -10819,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N134" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10847,21 +9955,21 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="12.5">
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -10877,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N135" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10905,21 +10013,21 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="12.5">
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -10935,7 +10043,7 @@
       </c>
       <c r="L136" s="6"/>
       <c r="M136" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N136" s="5" t="b">
         <f t="shared" si="4"/>
@@ -10963,21 +10071,21 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="12.5">
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
@@ -10993,7 +10101,7 @@
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N137" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11021,21 +10129,21 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="12.5">
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -11050,8 +10158,8 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="1" t="s">
-        <v>295</v>
+      <c r="M138" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="N138" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11079,21 +10187,21 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="12.5">
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -11109,7 +10217,7 @@
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N139" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11137,21 +10245,21 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="12.5">
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -11167,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N140" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11195,21 +10303,21 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="12.5">
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -11225,7 +10333,7 @@
       </c>
       <c r="L141" s="6"/>
       <c r="M141" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N141" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11253,21 +10361,21 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="12.5">
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -11283,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N142" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11311,21 +10419,21 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="12.5">
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -11341,7 +10449,7 @@
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N143" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11369,18 +10477,18 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="12.5">
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="1">
@@ -11397,7 +10505,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="6"/>
       <c r="M144" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N144" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11425,21 +10533,21 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="12.5">
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -11455,7 +10563,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="6"/>
       <c r="M145" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N145" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11483,18 +10591,18 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="12.5">
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="1">
@@ -11511,7 +10619,7 @@
       </c>
       <c r="L146" s="6"/>
       <c r="M146" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N146" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11539,21 +10647,21 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="12.5">
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -11569,7 +10677,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="6"/>
       <c r="M147" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N147" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11597,21 +10705,21 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="12.5">
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -11621,13 +10729,13 @@
         <v>1</v>
       </c>
       <c r="I148" s="6"/>
-      <c r="J148" s="7">
-        <v>1</v>
-      </c>
-      <c r="K148" s="2"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="14">
+        <v>1</v>
+      </c>
       <c r="L148" s="6"/>
       <c r="M148" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N148" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11655,21 +10763,21 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="12.5">
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -11685,7 +10793,7 @@
       </c>
       <c r="L149" s="6"/>
       <c r="M149" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="N149" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11713,21 +10821,21 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="12.5">
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -11743,7 +10851,7 @@
       </c>
       <c r="L150" s="6"/>
       <c r="M150" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N150" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11771,18 +10879,18 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="12.5">
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="1">
@@ -11799,7 +10907,7 @@
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N151" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11827,21 +10935,21 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="12.5">
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F152" s="1">
         <v>1</v>
@@ -11851,13 +10959,13 @@
         <v>1</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="7">
-        <v>1</v>
-      </c>
-      <c r="K152" s="2"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="10">
+        <v>1</v>
+      </c>
       <c r="L152" s="6"/>
       <c r="M152" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N152" s="5" t="b">
         <f t="shared" si="4"/>
@@ -11885,7 +10993,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="12.5">
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11913,7 +11021,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="12.5">
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11941,7 +11049,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="12.5">
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11969,7 +11077,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="12.5">
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11997,7 +11105,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="12.5">
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -12025,7 +11133,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="12.5">
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12053,7 +11161,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="12.5">
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -12081,7 +11189,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="12.5">
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12109,7 +11217,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="12.5">
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12137,7 +11245,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="12.5">
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12165,7 +11273,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="12.5">
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12193,7 +11301,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="12.5">
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12222,678 +11330,9 @@
       <c r="Z164" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q152"/>
-  <printOptions horizontalCentered="1" gridLines="1"/>
+  <autoFilter ref="A1:Q152" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <printOptions horizontalCentered="1" headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:P45"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="9">
-        <f>SUM(Sheet1!F2:F152)</f>
-        <v>151</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9">
-        <f>SUM(Sheet1!H2:H152)</f>
-        <v>74</v>
-      </c>
-      <c r="M1" s="9">
-        <f>SUM(Sheet1!I2:I152)</f>
-        <v>77</v>
-      </c>
-      <c r="N1" s="9">
-        <f>SUM(Sheet1!J2:J152)</f>
-        <v>42</v>
-      </c>
-      <c r="O1" s="9">
-        <f>SUM(Sheet1!K2:K152)</f>
-        <v>87</v>
-      </c>
-      <c r="P1" s="9">
-        <f>SUM(Sheet1!L2:L152)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(Sheet1!M2:M153)"),"Chamoson")</f>
-        <v>Chamoson</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B2)</f>
-        <v>33</v>
-      </c>
-      <c r="E2" s="8">
-        <v>63</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vétroz")</f>
-        <v>Vétroz</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B3)</f>
-        <v>14</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nendaz")</f>
-        <v>Nendaz</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B4)</f>
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <f>SUM(L1:M1)</f>
-        <v>151</v>
-      </c>
-      <c r="N4">
-        <f>SUM(N1:P1)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Conthey")</f>
-        <v>Conthey</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B5)</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="12">
-        <f>E3/E2</f>
-        <v>0.68253968253968256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ardon")</f>
-        <v>Ardon</v>
-      </c>
-      <c r="B6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Liddes")</f>
-        <v>Liddes</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B7)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vollèges")</f>
-        <v>Vollèges</v>
-      </c>
-      <c r="B8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Orsières")</f>
-        <v>Orsières</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bagnes")</f>
-        <v>Bagnes</v>
-      </c>
-      <c r="B10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ayent")</f>
-        <v>Ayent</v>
-      </c>
-      <c r="B11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vex")</f>
-        <v>Vex</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B12)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A13" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hérémence")</f>
-        <v>Hérémence</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B13)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Evolène")</f>
-        <v>Evolène</v>
-      </c>
-      <c r="B14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mont-Noble")</f>
-        <v>Mont-Noble</v>
-      </c>
-      <c r="B15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A16" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fully")</f>
-        <v>Fully</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B16)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Saxon")</f>
-        <v>Saxon</v>
-      </c>
-      <c r="B17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B17)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Charrat")</f>
-        <v>Charrat</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B18)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Riddes")</f>
-        <v>Riddes</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B19)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.5">
-      <c r="A20" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Martigny")</f>
-        <v>Martigny</v>
-      </c>
-      <c r="B20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B20)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.5">
-      <c r="A21" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Saillon")</f>
-        <v>Saillon</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B21)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.5">
-      <c r="A22" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Monthey")</f>
-        <v>Monthey</v>
-      </c>
-      <c r="B22" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B22)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.5">
-      <c r="A23" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Port-Valais")</f>
-        <v>Port-Valais</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.5">
-      <c r="A24" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Troistorrents")</f>
-        <v>Troistorrents</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.5">
-      <c r="A25" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vouvry")</f>
-        <v>Vouvry</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.5">
-      <c r="A26" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Champéry")</f>
-        <v>Champéry</v>
-      </c>
-      <c r="B26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.5">
-      <c r="A27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Val d'Illiez")</f>
-        <v>Val d'Illiez</v>
-      </c>
-      <c r="B27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.5">
-      <c r="A28" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Collombey-Muraz")</f>
-        <v>Collombey-Muraz</v>
-      </c>
-      <c r="B28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.5">
-      <c r="A29" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Anniviers")</f>
-        <v>Anniviers</v>
-      </c>
-      <c r="B29" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.5">
-      <c r="A30" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Miège")</f>
-        <v>Miège</v>
-      </c>
-      <c r="B30" t="s">
-        <v>341</v>
-      </c>
-      <c r="C30">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.5">
-      <c r="A31" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Veyras")</f>
-        <v>Veyras</v>
-      </c>
-      <c r="B31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C31">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.5">
-      <c r="A32" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Crans-Montana")</f>
-        <v>Crans-Montana</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.5">
-      <c r="A33" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sierre")</f>
-        <v>Sierre</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.5">
-      <c r="A34" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chalais")</f>
-        <v>Chalais</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.5">
-      <c r="A35" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"St-Léonard")</f>
-        <v>St-Léonard</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.5">
-      <c r="A36" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Venthône")</f>
-        <v>Venthône</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.5">
-      <c r="A37" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sion")</f>
-        <v>Sion</v>
-      </c>
-      <c r="B37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12.5">
-      <c r="A38" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grimisuat")</f>
-        <v>Grimisuat</v>
-      </c>
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.5">
-      <c r="A39" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arbaz")</f>
-        <v>Arbaz</v>
-      </c>
-      <c r="B39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="12.5">
-      <c r="A40" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Veysonnaz")</f>
-        <v>Veysonnaz</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.5">
-      <c r="A41" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Savièse")</f>
-        <v>Savièse</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.5">
-      <c r="A42" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Salvan")</f>
-        <v>Salvan</v>
-      </c>
-      <c r="B42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.5">
-      <c r="A43" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Massongex")</f>
-        <v>Massongex</v>
-      </c>
-      <c r="B43" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.5">
-      <c r="A44" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"St-Maurice")</f>
-        <v>St-Maurice</v>
-      </c>
-      <c r="B44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44">
-        <f>COUNTIF(Sheet1!$M$2:$M$152,"="&amp;B44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.5">
-      <c r="A45" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vérossaz")</f>
-        <v>Vérossaz</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:C44"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>